--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -95,13 +96,16 @@
     <t>delta x</t>
   </si>
   <si>
-    <t>Пересчет минут в радианы:</t>
-  </si>
-  <si>
-    <t>8 минут</t>
-  </si>
-  <si>
-    <t>Коэфф из матлаба</t>
+    <t>d=\frac{lambda}{2\epsilon}</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>alpha</t>
   </si>
 </sst>
 </file>
@@ -153,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +167,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,10 +281,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +297,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,6 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,303 +603,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.06</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>1.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>1626.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.33</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>1398</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>297</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.69</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>3.2469999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f>C12*G12</f>
         <v>1.07151</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <f>H12/$A$18</f>
         <v>6.3215929203539823E-4</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="L12">
-        <v>2.3271099999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>1253</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>1305</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>300</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1.51</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>7.0209999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f>C13*G13</f>
         <v>1.0180449999999999</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <f>H13/$A$18</f>
         <v>6.0061651917404121E-4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <f>AVERAGE(I13:I17)</f>
         <v>6.3390929203539824E-4</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>940</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.23</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>1397</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>298</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>4.6870000000000003</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f>C14*G14</f>
         <v>1.0780100000000001</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f>H14/$A$18</f>
         <v>6.3599410029498529E-4</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="L14" s="1">
-        <v>2.6619999999999999E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>847.5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.27</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>1397</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>298</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>0.88</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>4.125</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f>C15*G15</f>
         <v>1.11375</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <f>H15/$A$18</f>
         <v>6.5707964601769916E-4</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="L15" s="2">
-        <v>5.5420000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>313.25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>0.78</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>1395</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>300</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>0.3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>1.395</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <f>C16*G16</f>
         <v>1.0881000000000001</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f>H16/$A$18</f>
         <v>6.4194690265486731E-4</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -894,499 +894,541 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>1259</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>1395</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>300</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>1.68</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>7.8120000000000003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <f>G24*C24</f>
         <v>0.92181599999999997</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <f>H24/$A$18</f>
         <v>5.4384424778761056E-4</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>950</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>0.18</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>1398</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>297</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>1.01</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>4.7539999999999996</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" ref="H25:H28" si="0">G25*C25</f>
+      <c r="H25" s="2">
+        <f>G25*C25</f>
         <v>0.85571999999999993</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <f>H25/$A$18</f>
         <v>5.0484955752212388E-4</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>847.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>0.22</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>1397</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>298</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>0.91</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>4.266</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
+      <c r="H26" s="2">
+        <f>G26*C26</f>
         <v>0.93852000000000002</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <f>H26/$A$18</f>
         <v>5.5369911504424784E-4</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <f>AVERAGE(I24:I28)</f>
         <v>5.3081486725663728E-4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>626.5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>0.27</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>1397</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>298</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>0.68</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>3.18</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
+      <c r="H27" s="2">
+        <f>G27*C27</f>
         <v>0.85860000000000014</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <f>H27/$A$18</f>
         <v>5.0654867256637174E-4</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>313.25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>1410</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>285</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>0.34</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>1.68</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
+      <c r="H28" s="2">
+        <f>G28*C28</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <f>H28/$A$18</f>
         <v>5.4513274336283183E-4</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>847.5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>8</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>313</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>9</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>7</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>626</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>12</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>7</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>940</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>16</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>8</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>1253</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>12</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>7</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="J42">
+        <f>(K42-1)*L42</f>
+        <v>1.2100400000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>1.52</v>
+      </c>
+      <c r="L42">
+        <v>2.3270000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>1290</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>0.12</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>11</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>1.59</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>0.12</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>146</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>0.11</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>6</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>0.6</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>0.11</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>5</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>500</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>0.11</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>8</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>0.9</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>0.1</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>5</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>300</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>0.18</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>7</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>0.78</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>0.16</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>800</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>0.12</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>9</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>1.02</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>0.1</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>5</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <f>J13/(2*J42)</f>
+        <v>0.26193732935911135</v>
+      </c>
+      <c r="B51" s="25">
+        <f>J26/(2*J42)</f>
+        <v>0.21933773563544892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <f>J13/L42*2</f>
+        <v>0.54482964506695164</v>
       </c>
     </row>
   </sheetData>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\biprizm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\biprizm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -96,9 +96,6 @@
     <t>delta x</t>
   </si>
   <si>
-    <t>d=\frac{lambda}{2\epsilon}</t>
-  </si>
-  <si>
     <t>epsilon</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t>Теория</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,10 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +618,13 @@
     <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -632,7 +633,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -660,7 +661,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -674,21 +675,39 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1.073</v>
+      </c>
+      <c r="M8">
+        <v>0.90769999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>L8/1695</f>
+        <v>6.3303834808259589E-4</v>
+      </c>
+      <c r="M9">
+        <f>M8/1695</f>
+        <v>5.3551622418879057E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -752,7 +771,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -787,7 +806,7 @@
         <v>6.3390929203539824E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -819,7 +838,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -851,7 +870,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -1101,18 +1120,20 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K32" s="13"/>
       <c r="L32" s="14"/>
     </row>
@@ -1132,6 +1153,13 @@
       <c r="E33" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="I33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <f>2*J42^2*(1695*1695/2-1695^2/4)/1695/J13</f>
+        <v>1.9575463003099607</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1149,6 +1177,13 @@
       <c r="E34" s="2">
         <v>7</v>
       </c>
+      <c r="I34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <f>2*J42^2*(1695*1695/2-1695^2/4)/1695/J26</f>
+        <v>2.3377393247654634</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1219,25 +1254,25 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="L41" t="s">
         <v>25</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1284,7 +1319,7 @@
         <v>1290</v>
       </c>
       <c r="C43" s="2">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D43" s="2">
         <v>11</v>
@@ -1310,7 +1345,7 @@
         <v>146</v>
       </c>
       <c r="C44" s="2">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D44" s="2">
         <v>6</v>
@@ -1336,7 +1371,7 @@
         <v>500</v>
       </c>
       <c r="C45" s="2">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D45" s="2">
         <v>8</v>
@@ -1362,7 +1397,7 @@
         <v>300</v>
       </c>
       <c r="C46" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D46" s="2">
         <v>7</v>
@@ -1371,7 +1406,7 @@
         <v>0.78</v>
       </c>
       <c r="F46" s="2">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G46" s="2">
         <v>6</v>
@@ -1406,27 +1441,22 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
-        <f>J13/(2*J42)</f>
-        <v>0.26193732935911135</v>
-      </c>
-      <c r="B51" s="25">
-        <f>J26/(2*J42)</f>
-        <v>0.21933773563544892</v>
+      <c r="A51" s="18">
+        <f>4*J42*C43</f>
+        <v>6.2922080000000005E-4</v>
+      </c>
+      <c r="B51" s="18">
+        <f>4*J42*F44</f>
+        <v>5.3241760000000008E-4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="A54" s="18">
         <f>J13/L42*2</f>
         <v>0.54482964506695164</v>
       </c>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,8 +111,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -606,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,13 +1447,13 @@
       <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <f>4*J42*C43</f>
-        <v>6.2922080000000005E-4</v>
-      </c>
-      <c r="B51" s="18">
-        <f>4*J42*F44</f>
-        <v>5.3241760000000008E-4</v>
+      <c r="A51" s="27">
+        <f>J13/4/C45</f>
+        <v>1.3206443584070798E-3</v>
+      </c>
+      <c r="B51" s="27">
+        <f>J26/4/F45</f>
+        <v>1.3270371681415932E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -113,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -305,6 +305,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,12 +620,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -695,18 +695,18 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1121,13 +1121,13 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>0</v>
@@ -1158,8 +1158,8 @@
         <v>0</v>
       </c>
       <c r="J33" s="18">
-        <f>2*J42^2*(1695*1695/2-1695^2/4)/1695/J13</f>
-        <v>1.9575463003099607</v>
+        <f>2*2*J42^2*(1695*1695/2-1695^2/4)/1695/J13</f>
+        <v>3.9150926006199214</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1182,8 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="18">
-        <f>2*J42^2*(1695*1695/2-1695^2/4)/1695/J26</f>
-        <v>2.3377393247654634</v>
+        <f>2*2*J42^2*(1695*1695/2-1695^2/4)/1695/J26</f>
+        <v>4.6754786495309268</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,16 +1255,16 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
         <v>23</v>
@@ -1442,21 +1442,31 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="16"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <f>J13/4/C45</f>
         <v>1.3206443584070798E-3</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="21">
         <f>J26/4/F45</f>
         <v>1.3270371681415932E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I51" s="18">
+        <f>2*4*J42^2/J13</f>
+        <v>1.8478313159268064E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="18">
+        <f>2*4*J42^2/J26</f>
+        <v>2.2067155867992572E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <f>J13/L42*2</f>
         <v>0.54482964506695164</v>
